--- a/experiments/2022_car_sampling_pnec/results/statistics/stats_auc_reporting_type.xlsx
+++ b/experiments/2022_car_sampling_pnec/results/statistics/stats_auc_reporting_type.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>parameter</t>
   </si>
@@ -32,9 +32,6 @@
     <t>subject</t>
   </si>
   <si>
-    <t>groupby</t>
-  </si>
-  <si>
     <t>multicomp</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
     <t>night_id</t>
   </si>
   <si>
-    <t>saliva_feature</t>
-  </si>
-  <si>
     <t>{'method': 'bonf', 'levels': False}</t>
   </si>
   <si>
@@ -62,19 +56,13 @@
     <t>normal</t>
   </si>
   <si>
-    <t>auc_g</t>
-  </si>
-  <si>
-    <t>auc_i</t>
-  </si>
-  <si>
     <t>Naive</t>
   </si>
   <si>
-    <t>Selfreport w/ App</t>
-  </si>
-  <si>
-    <t>App</t>
+    <t>AW &amp; ST: Selfreport (w/ App)</t>
+  </si>
+  <si>
+    <t>AW &amp; ST: App</t>
   </si>
   <si>
     <t>Test for Normal Distribution</t>
@@ -104,15 +92,15 @@
     <t>p-unc</t>
   </si>
   <si>
+    <t>p-GG-corr</t>
+  </si>
+  <si>
     <t>ng2</t>
   </si>
   <si>
     <t>eps</t>
   </si>
   <si>
-    <t>p-GG-corr</t>
-  </si>
-  <si>
     <t>sphericity</t>
   </si>
   <si>
@@ -161,19 +149,10 @@
     <t>two-sided</t>
   </si>
   <si>
-    <t>3.737e+15</t>
-  </si>
-  <si>
-    <t>4.358e+04</t>
-  </si>
-  <si>
-    <t>1.858e+05</t>
+    <t>355.376</t>
   </si>
   <si>
     <t>8.093e+04</t>
-  </si>
-  <si>
-    <t>355.376</t>
   </si>
   <si>
     <t>47.509</t>
@@ -538,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -554,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -562,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -570,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -578,15 +557,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -596,194 +567,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B3">
+        <v>0.9901</v>
+      </c>
+      <c r="C3">
+        <v>0.1767</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="B4">
+        <v>0.9918</v>
+      </c>
+      <c r="C4">
+        <v>0.8367</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>0.9842</v>
-      </c>
-      <c r="D3">
-        <v>0.0217</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>0.9878</v>
-      </c>
-      <c r="D4">
-        <v>0.5383</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
+      <c r="B5">
+        <v>0.9898</v>
       </c>
       <c r="C5">
-        <v>0.9873</v>
-      </c>
-      <c r="D5">
-        <v>0.6187</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>0.9901</v>
-      </c>
-      <c r="D6">
-        <v>0.1767</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>0.9918</v>
-      </c>
-      <c r="D7">
-        <v>0.8367</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>0.9898</v>
-      </c>
-      <c r="D8">
         <v>0.7823</v>
       </c>
-      <c r="E8" t="b">
+      <c r="D5" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>0.6879999999999999</v>
       </c>
       <c r="C3">
-        <v>0.2006</v>
-      </c>
-      <c r="D3">
-        <v>0.8183</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4">
-        <v>0.6879999999999999</v>
-      </c>
-      <c r="D4">
         <v>0.5032</v>
       </c>
-      <c r="E4" t="b">
+      <c r="D3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -794,7 +684,98 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>154</v>
+      </c>
+      <c r="E3">
+        <v>24.5021</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.0001</v>
+      </c>
+      <c r="I3">
+        <v>0.805</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.7578</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -802,439 +783,171 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>154</v>
-      </c>
-      <c r="F3">
-        <v>67.1596</v>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>4.2771</v>
       </c>
       <c r="H3">
-        <v>0.0012</v>
-      </c>
-      <c r="I3">
-        <v>0.9913</v>
+        <v>77</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3">
+        <v>0.0001</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3">
+        <v>0.017</v>
+      </c>
+      <c r="M3">
+        <v>0.0003</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>154</v>
-      </c>
-      <c r="F4">
-        <v>24.5021</v>
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>5.7577</v>
       </c>
       <c r="H4">
-        <v>0.0001</v>
-      </c>
-      <c r="I4">
-        <v>0.805</v>
+        <v>77</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="b">
-        <v>0</v>
+      <c r="K4" t="s">
+        <v>44</v>
       </c>
       <c r="L4">
-        <v>0.7578</v>
+        <v>0.0291</v>
       </c>
       <c r="M4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.647</v>
+      </c>
+      <c r="H5">
+        <v>77</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5">
+        <v>0.0005</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5">
+        <v>0.0122</v>
+      </c>
+      <c r="M5">
+        <v>0.0015</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>11.5934</v>
-      </c>
-      <c r="I3">
-        <v>77</v>
-      </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3">
-        <v>0.0852</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>5.599</v>
-      </c>
-      <c r="I4">
-        <v>77</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4">
-        <v>0.0395</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>-5.9682</v>
-      </c>
-      <c r="I5">
-        <v>77</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5">
-        <v>-0.0462</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>5.7577</v>
-      </c>
-      <c r="I6">
-        <v>77</v>
-      </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6">
-        <v>0.0291</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>4.2771</v>
-      </c>
-      <c r="I7">
-        <v>77</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7">
-        <v>0.0001</v>
-      </c>
-      <c r="L7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7">
-        <v>0.017</v>
-      </c>
-      <c r="N7">
-        <v>0.0003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>-3.647</v>
-      </c>
-      <c r="I8">
-        <v>77</v>
-      </c>
-      <c r="J8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8">
-        <v>0.0005</v>
-      </c>
-      <c r="L8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8">
-        <v>-0.0122</v>
-      </c>
-      <c r="N8">
-        <v>0.0015</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>